--- a/Refresh design - Tasks estimation.xlsx
+++ b/Refresh design - Tasks estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrada\Desktop\BENTII app IC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAF86AF-4DE9-4F5C-8185-AC756E7F5287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FAD5A-701D-45AD-B34A-F736A08C7A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="1608" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{05DE63F6-1A77-4729-BDC5-96FCD3FB5A85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{05DE63F6-1A77-4729-BDC5-96FCD3FB5A85}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks estimation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Category</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Development + Testing + Bug fixing</t>
   </si>
   <si>
-    <t>Total ( Euro)</t>
-  </si>
-  <si>
     <t>Name (Refresh design)</t>
   </si>
   <si>
@@ -152,13 +149,22 @@
   </si>
   <si>
     <t>Maintanance / ... year</t>
+  </si>
+  <si>
+    <t>Total $</t>
+  </si>
+  <si>
+    <t>Vandut!</t>
+  </si>
+  <si>
+    <t>Final: 14.000$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +204,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +316,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,13 +340,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232BE40F-7059-4764-B327-AA995F0635AA}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +692,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -673,72 +701,72 @@
       <c r="C2" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5">
         <v>24</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -747,109 +775,109 @@
       <c r="C9" s="5">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5">
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5">
         <v>16</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5">
         <v>16</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5">
         <v>20</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="5">
         <v>24</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5">
         <v>24</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="5">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -874,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23754B2-8F22-432B-9D4D-387445874D1D}">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,7 +917,7 @@
     <row r="1" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -902,31 +930,31 @@
     </row>
     <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>1200</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18">
         <v>800</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9">
         <v>500</v>
@@ -934,7 +962,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9">
         <v>400</v>
@@ -942,15 +970,15 @@
     </row>
     <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>32</v>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="9">
         <v>120</v>
@@ -958,30 +986,40 @@
     </row>
     <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1200</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="10">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Refresh design - Tasks estimation.xlsx
+++ b/Refresh design - Tasks estimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrada\Desktop\BENTII app IC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrada\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FAD5A-701D-45AD-B34A-F736A08C7A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20E0B2-7369-41EF-9510-4DFF00CD78C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{05DE63F6-1A77-4729-BDC5-96FCD3FB5A85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05DE63F6-1A77-4729-BDC5-96FCD3FB5A85}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks estimation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -76,15 +76,9 @@
     <t>Password encryption</t>
   </si>
   <si>
-    <t>Login via Facebook &amp; Google</t>
-  </si>
-  <si>
     <t>Refresh design - main</t>
   </si>
   <si>
-    <t>E-mail notification</t>
-  </si>
-  <si>
     <t>Add comments (design page)</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Authentification admin - Backend</t>
   </si>
   <si>
-    <t>Contact administrator (notification via e-mail)</t>
-  </si>
-  <si>
     <t>53-70</t>
   </si>
   <si>
@@ -158,6 +149,9 @@
   </si>
   <si>
     <t>Final: 14.000$</t>
+  </si>
+  <si>
+    <t>Add reply comments (design page)</t>
   </si>
 </sst>
 </file>
@@ -287,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,19 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,6 +330,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232BE40F-7059-4764-B327-AA995F0635AA}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +689,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -701,73 +698,73 @@
       <c r="C2" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>24</v>
+      <c r="D2" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>6</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5">
-        <v>24</v>
-      </c>
-      <c r="D8" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>15</v>
+      <c r="A9" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -775,117 +772,97 @@
       <c r="C9" s="5">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
+      <c r="D9" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5">
         <v>20</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5">
         <v>12</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13">
+        <v>20</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5">
-        <v>16</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5">
+        <v>24</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="5">
-        <v>20</v>
-      </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C17" s="5">
         <v>24</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5">
-        <v>24</v>
-      </c>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5">
-        <v>8</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8">
         <v>270</v>
       </c>
     </row>
@@ -893,8 +870,8 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A9:A19"/>
-    <mergeCell ref="D9:D19"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="D9:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -904,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23754B2-8F22-432B-9D4D-387445874D1D}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,12 +894,12 @@
     <row r="1" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9">
         <v>5400</v>
@@ -930,31 +907,31 @@
     </row>
     <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9">
         <v>1200</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14">
         <v>800</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9">
         <v>500</v>
@@ -962,7 +939,7 @@
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9">
         <v>400</v>
@@ -970,7 +947,7 @@
     </row>
     <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9">
         <v>200</v>
@@ -978,7 +955,7 @@
     </row>
     <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9">
         <v>120</v>
@@ -986,7 +963,7 @@
     </row>
     <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10">
         <v>150</v>
@@ -994,7 +971,7 @@
     </row>
     <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10">
         <v>500</v>
@@ -1002,23 +979,23 @@
     </row>
     <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="19" t="s">
-        <v>41</v>
+      <c r="C19" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="20" t="s">
-        <v>40</v>
+      <c r="C20" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
